--- a/config_12.08/fish_2d_fish_server.xlsx
+++ b/config_12.08/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="391">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1645,6 +1645,46 @@
   <si>
     <t>"jing_bi",10,50,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_12_12_lh",0,0.05,0.1</t>
+  </si>
+  <si>
+    <t>"prop_12_12_lh",0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>"prop_12_12_lh",0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>"prop_12_12_lh",0,0.01,</t>
+  </si>
+  <si>
+    <t>167,</t>
+  </si>
+  <si>
+    <t>168,</t>
+  </si>
+  <si>
+    <t>169,</t>
+  </si>
+  <si>
+    <t>170,</t>
+  </si>
+  <si>
+    <t>171,</t>
+  </si>
+  <si>
+    <t>172,</t>
+  </si>
+  <si>
+    <t>173,</t>
+  </si>
+  <si>
+    <t>174,</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1742,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1736,6 +1776,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,7 +1825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1841,6 +1887,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2124,10 +2183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W193"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="K183" sqref="K183"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7532,6 +7591,214 @@
         <v>166</v>
       </c>
     </row>
+    <row r="194" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="28">
+        <v>193</v>
+      </c>
+      <c r="B194" s="28">
+        <v>1</v>
+      </c>
+      <c r="C194" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="H194" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I194" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J194" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q194" s="29">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="28">
+        <v>194</v>
+      </c>
+      <c r="B195" s="28">
+        <v>1</v>
+      </c>
+      <c r="C195" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="H195" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I195" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J195" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q195" s="29">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="28">
+        <v>195</v>
+      </c>
+      <c r="B196" s="28">
+        <v>1</v>
+      </c>
+      <c r="C196" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="H196" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I196" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J196" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q196" s="29">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="28">
+        <v>196</v>
+      </c>
+      <c r="B197" s="28">
+        <v>1</v>
+      </c>
+      <c r="C197" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H197" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I197" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J197" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q197" s="29">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="28">
+        <v>197</v>
+      </c>
+      <c r="B198" s="28">
+        <v>1</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="H198" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q198,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R198,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S198,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T198,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U198,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V198,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W198,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I198" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q198,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R198,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S198,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T198,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U198,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V198,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W198,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J198" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q198,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R198,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S198,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T198,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U198,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V198,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W198,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q198" s="29">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="28">
+        <v>198</v>
+      </c>
+      <c r="B199" s="28">
+        <v>1</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="H199" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q199,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R199,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S199,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T199,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U199,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V199,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W199,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="I199" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q199,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R199,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S199,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T199,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U199,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V199,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W199,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="J199" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q199,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R199,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S199,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T199,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U199,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V199,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W199,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q199" s="29">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="28">
+        <v>199</v>
+      </c>
+      <c r="B200" s="28">
+        <v>1</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="H200" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q200,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R200,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S200,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T200,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U200,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V200,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W200,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>150</v>
+      </c>
+      <c r="I200" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q200,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R200,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S200,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T200,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U200,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V200,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W200,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>150</v>
+      </c>
+      <c r="J200" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q200,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R200,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S200,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T200,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U200,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V200,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W200,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q200" s="29">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="28">
+        <v>200</v>
+      </c>
+      <c r="B201" s="28">
+        <v>1</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="H201" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q201,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R201,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S201,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T201,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U201,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V201,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W201,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I201" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q201,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R201,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S201,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T201,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U201,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V201,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W201,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J201" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q201,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R201,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S201,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T201,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U201,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V201,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W201,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q201" s="29">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1">
@@ -7545,7 +7812,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H193">
+  <conditionalFormatting sqref="H2:H145 H149 H151:H201">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7556,7 +7823,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I193">
+  <conditionalFormatting sqref="I2:I145 I149 I151:I201">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7567,7 +7834,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J193">
+  <conditionalFormatting sqref="J2:J145 J149 J151:J201">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7714,11 +7981,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E175" sqref="E175"/>
+      <selection pane="bottomLeft" activeCell="E181" sqref="E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15617,6 +15884,382 @@
         <v>1</v>
       </c>
     </row>
+    <row r="168" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="26">
+        <v>167</v>
+      </c>
+      <c r="B168" s="27">
+        <v>6</v>
+      </c>
+      <c r="C168" s="26">
+        <v>44</v>
+      </c>
+      <c r="D168" s="28">
+        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C168,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="E168" s="26">
+        <f t="shared" ref="E168:E175" si="8">1/D168</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F168" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G168" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B168,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C168,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="H168" s="28">
+        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C168,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="I168" s="28">
+        <v>1</v>
+      </c>
+      <c r="J168" s="28">
+        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K168" s="28">
+        <f t="shared" ref="K168:K175" si="9">H168</f>
+        <v>30</v>
+      </c>
+      <c r="L168" s="28">
+        <v>1</v>
+      </c>
+      <c r="M168" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="26">
+        <v>168</v>
+      </c>
+      <c r="B169" s="27">
+        <v>7</v>
+      </c>
+      <c r="C169" s="26">
+        <v>44</v>
+      </c>
+      <c r="D169" s="28">
+        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C169,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="E169" s="26">
+        <f t="shared" si="8"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F169" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G169" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B169,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C169,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="H169" s="28">
+        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C169,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="I169" s="28">
+        <v>1</v>
+      </c>
+      <c r="J169" s="28">
+        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K169" s="28">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="L169" s="28">
+        <v>1</v>
+      </c>
+      <c r="M169" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="26">
+        <v>169</v>
+      </c>
+      <c r="B170" s="27">
+        <v>8</v>
+      </c>
+      <c r="C170" s="26">
+        <v>44</v>
+      </c>
+      <c r="D170" s="28">
+        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C170,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="E170" s="26">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="F170" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G170" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B170,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C170,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="H170" s="28">
+        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C170,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="I170" s="28">
+        <v>1</v>
+      </c>
+      <c r="J170" s="28">
+        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K170" s="28">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="L170" s="28">
+        <v>1</v>
+      </c>
+      <c r="M170" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="26">
+        <v>170</v>
+      </c>
+      <c r="B171" s="27">
+        <v>9</v>
+      </c>
+      <c r="C171" s="26">
+        <v>44</v>
+      </c>
+      <c r="D171" s="28">
+        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C171,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="E171" s="26">
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F171" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G171" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B171,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C171,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="H171" s="28">
+        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C171,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="I171" s="28">
+        <v>1</v>
+      </c>
+      <c r="J171" s="28">
+        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K171" s="28">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="L171" s="28">
+        <v>1</v>
+      </c>
+      <c r="M171" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="26">
+        <v>171</v>
+      </c>
+      <c r="B172" s="27">
+        <v>10</v>
+      </c>
+      <c r="C172" s="26">
+        <v>44</v>
+      </c>
+      <c r="D172" s="28">
+        <f>LOOKUP(use_fish!B172,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C172,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="E172" s="26">
+        <f t="shared" si="8"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="F172" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G172" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B172,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C172,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="H172" s="28">
+        <f>LOOKUP(use_fish!B172,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C172,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="I172" s="28">
+        <v>1</v>
+      </c>
+      <c r="J172" s="28">
+        <f>LOOKUP(use_fish!B172,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K172" s="28">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="L172" s="28">
+        <v>1</v>
+      </c>
+      <c r="M172" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="26">
+        <v>172</v>
+      </c>
+      <c r="B173" s="27">
+        <v>34</v>
+      </c>
+      <c r="C173" s="26">
+        <v>41</v>
+      </c>
+      <c r="D173" s="28">
+        <f>LOOKUP(use_fish!B173,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C173,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="E173" s="26">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F173" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G173" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B173,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C173,activity!A:A,0)),"")</f>
+        <v>礼盒鱼+临时活动</v>
+      </c>
+      <c r="H173" s="28">
+        <f>LOOKUP(use_fish!B173,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C173,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="I173" s="28">
+        <v>1</v>
+      </c>
+      <c r="J173" s="28">
+        <f>LOOKUP(use_fish!B173,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K173" s="28">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="L173" s="28">
+        <v>1</v>
+      </c>
+      <c r="M173" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="26">
+        <v>173</v>
+      </c>
+      <c r="B174" s="27">
+        <v>34</v>
+      </c>
+      <c r="C174" s="26">
+        <v>42</v>
+      </c>
+      <c r="D174" s="28">
+        <f>LOOKUP(use_fish!B174,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C174,activity!A:A,0)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="E174" s="26">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="F174" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G174" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B174,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C174,activity!A:A,0)),"")</f>
+        <v>礼盒鱼+临时活动</v>
+      </c>
+      <c r="H174" s="28">
+        <f>LOOKUP(use_fish!B174,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C174,activity!A:A,0)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="I174" s="28">
+        <v>1</v>
+      </c>
+      <c r="J174" s="28">
+        <f>LOOKUP(use_fish!B174,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K174" s="28">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="L174" s="28">
+        <v>1</v>
+      </c>
+      <c r="M174" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="26">
+        <v>174</v>
+      </c>
+      <c r="B175" s="27">
+        <v>34</v>
+      </c>
+      <c r="C175" s="26">
+        <v>43</v>
+      </c>
+      <c r="D175" s="28">
+        <f>LOOKUP(use_fish!B175,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C175,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="E175" s="26">
+        <f t="shared" si="8"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F175" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G175" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B175,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C175,activity!A:A,0)),"")</f>
+        <v>礼盒鱼+临时活动</v>
+      </c>
+      <c r="H175" s="28">
+        <f>LOOKUP(use_fish!B175,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C175,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="I175" s="28">
+        <v>1</v>
+      </c>
+      <c r="J175" s="28">
+        <f>LOOKUP(use_fish!B175,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K175" s="28">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="L175" s="28">
+        <v>1</v>
+      </c>
+      <c r="M175" s="28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15627,10 +16270,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16748,6 +17391,98 @@
       </c>
       <c r="G41" s="24" t="s">
         <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28">
+        <v>41</v>
+      </c>
+      <c r="B42" s="28">
+        <v>9</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42" s="30">
+        <v>0</v>
+      </c>
+      <c r="E42" s="30">
+        <v>1</v>
+      </c>
+      <c r="F42" s="28">
+        <v>75</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+      <c r="B43" s="28">
+        <v>9</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" s="30">
+        <v>0</v>
+      </c>
+      <c r="E43" s="30">
+        <v>1</v>
+      </c>
+      <c r="F43" s="28">
+        <v>150</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28">
+        <v>43</v>
+      </c>
+      <c r="B44" s="28">
+        <v>9</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="30">
+        <v>0</v>
+      </c>
+      <c r="E44" s="30">
+        <v>1</v>
+      </c>
+      <c r="F44" s="28">
+        <v>250</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="28">
+        <v>44</v>
+      </c>
+      <c r="B45" s="28">
+        <v>9</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1</v>
+      </c>
+      <c r="E45" s="30">
+        <v>1</v>
+      </c>
+      <c r="F45" s="28">
+        <v>10</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -16842,10 +17577,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17695,6 +18431,29 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27">
+        <v>34</v>
+      </c>
+      <c r="B35" s="27">
+        <v>1</v>
+      </c>
+      <c r="C35" s="27">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="F35" s="27">
+        <v>0</v>
+      </c>
+      <c r="G35" s="27">
         <v>0</v>
       </c>
     </row>

--- a/config_12.08/fish_2d_fish_server.xlsx
+++ b/config_12.08/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -2185,7 +2185,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
@@ -7984,8 +7984,8 @@
   <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E181" sqref="E181"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17579,7 +17579,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
